--- a/subgroups/sbom-sg/outcomes/SBOM/SBOM_Tools_Document/SBOM_tools_documents.xlsx
+++ b/subgroups/sbom-sg/outcomes/SBOM/SBOM_Tools_Document/SBOM_tools_documents.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonyjpn-my.sharepoint.com/personal/hiroyuki_fukuchi_sony_com/Documents/ドキュメント/OpenChain/SBOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="799" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A902A9E-AC15-4E8D-8C17-B821FF620BDA}"/>
+  <xr:revisionPtr revIDLastSave="830" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AF07C83-4A86-4DBD-84B0-7C901506CF0F}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="804" windowWidth="20772" windowHeight="11280" activeTab="4" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
+    <workbookView xWindow="276" yWindow="804" windowWidth="20772" windowHeight="11280" activeTab="1" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
   </bookViews>
   <sheets>
-    <sheet name="SBOM関連情報" sheetId="6" r:id="rId1"/>
-    <sheet name="SBOM_Utility_Tools" sheetId="2" r:id="rId2"/>
-    <sheet name="SBOM_Generator" sheetId="4" r:id="rId3"/>
-    <sheet name="SBOM_Converters" sheetId="3" r:id="rId4"/>
-    <sheet name="Security_Tools" sheetId="5" r:id="rId5"/>
-    <sheet name="SBOM_Info" sheetId="1" r:id="rId6"/>
+    <sheet name="Front Page" sheetId="7" r:id="rId1"/>
+    <sheet name="SBOM関連情報" sheetId="6" r:id="rId2"/>
+    <sheet name="SBOM_Utility_Tools" sheetId="2" r:id="rId3"/>
+    <sheet name="SBOM_Generator" sheetId="4" r:id="rId4"/>
+    <sheet name="SBOM_Converters" sheetId="3" r:id="rId5"/>
+    <sheet name="Security_Tools" sheetId="5" r:id="rId6"/>
+    <sheet name="SBOM_Info" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="518">
   <si>
     <t>https://www.youtube.com/@LearnSBOM/playlistsその他は以下です。</t>
   </si>
@@ -7788,6 +7789,104 @@
 a formal taxonomy of different types of data possible in a bill of materials, independent of BOM format
 a unique identifier, description, and other metadata about each item in the taxonomy
 the level of complexity or difficulty in supporting different types of data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2310.09742.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the Automatic Bill of Materials, or ABOM, a technique for embedding dependency metadata in binaries at compile time.
+Rather than relying on developers to explicitly enumerate dependency names and versions, ABOM embeds a hash of each distinct input source code file into the binary emitted by a compiler.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBOM情報キュレーション</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBOM関連情報</t>
+    <rPh sb="4" eb="8">
+      <t>カンレンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>等</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBOM Tool情報</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenChain Japan WG / SBOM Subgroup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/OpenChain-Project/OpenChain-JWG/blob/master/subgroups/sbom-sg/outcomes/SBOM/SBOM_Tools_Document/SBOM_tools_documents.xlsx</t>
+  </si>
+  <si>
+    <t>GitHub:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Generator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Converter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABOM (Automatic Bill of Materials)
+コンパイル時に依存関係をメタデータに埋め込む</t>
+    <rPh sb="40" eb="41">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -17016,11 +17115,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88F823-0D1C-4815-80D1-40AD63B22AC6}">
-  <dimension ref="A2:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F2AC56-0A28-4BFF-BD69-F4A9C08785DF}">
+  <dimension ref="B4:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="22.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88F823-0D1C-4815-80D1-40AD63B22AC6}">
+  <dimension ref="A2:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -17130,158 +17314,150 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="14"/>
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.45">
+      <c r="A9" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="14"/>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A14" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B14" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D14" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.45">
-      <c r="A13" s="21" t="s">
+    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.45">
+      <c r="A15" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B15" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.45">
-      <c r="A14" s="21" t="s">
+    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="A16" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B16" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="165" x14ac:dyDescent="0.45">
-      <c r="A15" s="21" t="s">
+    <row r="17" spans="1:4" ht="165" x14ac:dyDescent="0.45">
+      <c r="A17" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B17" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="14"/>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.45">
       <c r="A22" s="21" t="s">
         <v>449</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>445</v>
+        <v>18</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
         <v>449</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>454</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>14</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A24" s="21" t="s">
         <v>449</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>15</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -17292,10 +17468,10 @@
         <v>28</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>446</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.45">
@@ -17303,56 +17479,56 @@
         <v>449</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>453</v>
+      </c>
       <c r="D26" s="21" t="s">
-        <v>447</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="21" t="s">
         <v>449</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>448</v>
+        <v>28</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>449</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>478</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
         <v>449</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>479</v>
+        <v>448</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>449</v>
       </c>
@@ -17360,43 +17536,71 @@
         <v>480</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>449</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A32" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A33" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C33" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -17404,20 +17608,21 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9780DF05-8584-4CCB-B703-1E03AF32991F}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{B750DF48-748B-49B2-9FD3-33A27183C928}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{86416F5F-1658-40A0-881D-451012F58262}"/>
-    <hyperlink ref="D28" r:id="rId4" xr:uid="{56E7B146-7316-462C-9472-F79DB76FFD22}"/>
-    <hyperlink ref="D29" r:id="rId5" xr:uid="{C6C4250D-A119-4D68-8BD4-FB3DB6A41E67}"/>
-    <hyperlink ref="D30" r:id="rId6" xr:uid="{6EEBA059-80A9-408F-B82C-E03E637DC78A}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{D6B30986-4815-4E46-97E6-ABC76A10D00A}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{B3B8E223-5AE2-4D41-AB5F-AD59294190F2}"/>
-    <hyperlink ref="D31" r:id="rId9" xr:uid="{1BF3C021-B453-4910-9FF3-BF0619968081}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{A5EDCA11-FCB7-48F3-B53D-CCDB2F20E876}"/>
+    <hyperlink ref="D30" r:id="rId4" xr:uid="{56E7B146-7316-462C-9472-F79DB76FFD22}"/>
+    <hyperlink ref="D31" r:id="rId5" xr:uid="{C6C4250D-A119-4D68-8BD4-FB3DB6A41E67}"/>
+    <hyperlink ref="D32" r:id="rId6" xr:uid="{6EEBA059-80A9-408F-B82C-E03E637DC78A}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{D6B30986-4815-4E46-97E6-ABC76A10D00A}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{B3B8E223-5AE2-4D41-AB5F-AD59294190F2}"/>
+    <hyperlink ref="D33" r:id="rId9" xr:uid="{1BF3C021-B453-4910-9FF3-BF0619968081}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{A5EDCA11-FCB7-48F3-B53D-CCDB2F20E876}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{6440FDC8-F114-4F10-BAE6-42DE6977436D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54119C77-527F-4903-B6A0-019866776B69}">
   <dimension ref="A3:G28"/>
   <sheetViews>
@@ -17963,7 +18168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B6520E-B16E-496E-94D2-3598A03EA2EA}">
   <dimension ref="A3:G50"/>
   <sheetViews>
@@ -19013,7 +19218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0052A72F-99A5-4DB1-A333-01DE0A789EB0}">
   <dimension ref="A3:G14"/>
   <sheetViews>
@@ -19272,11 +19477,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EC331A-EAD8-4B76-BCAE-035C1A04ED8C}">
   <dimension ref="A3:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -19645,7 +19850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8526CA-8E14-4BA8-BAA5-3C86D2FD4276}">
   <dimension ref="B2:D34"/>
   <sheetViews>

--- a/subgroups/sbom-sg/outcomes/SBOM/SBOM_Tools_Document/SBOM_tools_documents.xlsx
+++ b/subgroups/sbom-sg/outcomes/SBOM/SBOM_Tools_Document/SBOM_tools_documents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonyjpn-my.sharepoint.com/personal/hiroyuki_fukuchi_sony_com/Documents/ドキュメント/OpenChain/SBOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="830" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AF07C83-4A86-4DBD-84B0-7C901506CF0F}"/>
+  <xr:revisionPtr revIDLastSave="836" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8448F12-3F2B-4D1A-A2C9-E5EE45607730}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="804" windowWidth="20772" windowHeight="11280" activeTab="1" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
+    <workbookView xWindow="1332" yWindow="672" windowWidth="20772" windowHeight="11292" firstSheet="1" activeTab="5" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
   </bookViews>
   <sheets>
     <sheet name="Front Page" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="525">
   <si>
     <t>https://www.youtube.com/@LearnSBOM/playlistsその他は以下です。</t>
   </si>
@@ -7888,6 +7888,27 @@
       <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
+  </si>
+  <si>
+    <t>From SBOMs to F-Bombs: Vulnerability Analysis, SCA Tools, and False Positives &amp; Negatives</t>
+  </si>
+  <si>
+    <t>https://github.com/kwwall/presentations/blob/master/SBOMs_to_F-Bombs/kwwall-OWASP-2023-SBOMs_to_F-Bombs.pdf</t>
+  </si>
+  <si>
+    <t>SBOM Utility Tools</t>
+  </si>
+  <si>
+    <t>SBOM Generators</t>
+  </si>
+  <si>
+    <t>Security Tools</t>
   </si>
 </sst>
 </file>
@@ -17203,8 +17224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88F823-0D1C-4815-80D1-40AD63B22AC6}">
   <dimension ref="A2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -17590,11 +17611,19 @@
       <c r="C34" s="21"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A35" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
@@ -17626,8 +17655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54119C77-527F-4903-B6A0-019866776B69}">
   <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -17694,7 +17723,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B7" s="9" t="s">
         <v>88</v>
       </c>
@@ -17715,7 +17746,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B8" s="9" t="s">
         <v>89</v>
       </c>
@@ -17736,7 +17769,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B9" s="9" t="s">
         <v>90</v>
       </c>
@@ -17757,7 +17792,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B10" s="9" t="s">
         <v>91</v>
       </c>
@@ -17778,7 +17815,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B11" s="9" t="s">
         <v>92</v>
       </c>
@@ -17799,7 +17838,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B12" s="9" t="s">
         <v>93</v>
       </c>
@@ -17820,7 +17861,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>94</v>
       </c>
@@ -17841,7 +17884,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="135" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>95</v>
       </c>
@@ -17862,7 +17907,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="255" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B15" s="9" t="s">
         <v>96</v>
       </c>
@@ -17883,7 +17930,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="135" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B16" s="9" t="s">
         <v>97</v>
       </c>
@@ -17904,7 +17953,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B17" s="9" t="s">
         <v>98</v>
       </c>
@@ -17925,7 +17976,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B18" s="9" t="s">
         <v>99</v>
       </c>
@@ -17946,7 +17999,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B19" s="9" t="s">
         <v>116</v>
       </c>
@@ -17967,7 +18022,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B20" s="9" t="s">
         <v>100</v>
       </c>
@@ -17988,7 +18045,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.45">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B21" s="9" t="s">
         <v>101</v>
       </c>
@@ -18009,7 +18068,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B22" s="9" t="s">
         <v>102</v>
       </c>
@@ -18030,7 +18091,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B23" s="9" t="s">
         <v>103</v>
       </c>
@@ -18051,7 +18114,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B24" s="9" t="s">
         <v>104</v>
       </c>
@@ -18072,7 +18137,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="B25" s="9" t="s">
         <v>105</v>
       </c>
@@ -18093,7 +18160,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
+      <c r="A26" s="13" t="s">
+        <v>522</v>
+      </c>
       <c r="B26" s="9" t="s">
         <v>106</v>
       </c>
@@ -18121,7 +18190,9 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>522</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>494</v>
       </c>
@@ -18173,7 +18244,7 @@
   <dimension ref="A3:G50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -18239,7 +18310,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>187</v>
       </c>
@@ -18260,7 +18333,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>190</v>
       </c>
@@ -18281,7 +18356,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>91</v>
       </c>
@@ -18302,7 +18379,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>195</v>
       </c>
@@ -18323,7 +18402,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>196</v>
       </c>
@@ -18344,7 +18425,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>199</v>
       </c>
@@ -18365,7 +18448,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>203</v>
       </c>
@@ -18386,7 +18471,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>205</v>
       </c>
@@ -18407,7 +18494,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>207</v>
       </c>
@@ -18428,7 +18517,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>210</v>
       </c>
@@ -18449,7 +18540,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>213</v>
       </c>
@@ -18470,7 +18563,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>216</v>
       </c>
@@ -18491,7 +18586,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>219</v>
       </c>
@@ -18512,7 +18609,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>221</v>
       </c>
@@ -18533,7 +18632,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.45">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>224</v>
       </c>
@@ -18554,7 +18655,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>225</v>
       </c>
@@ -18575,7 +18678,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="360" x14ac:dyDescent="0.45">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>231</v>
       </c>
@@ -18596,7 +18701,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>232</v>
       </c>
@@ -18617,7 +18724,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>236</v>
       </c>
@@ -18638,7 +18747,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="285" x14ac:dyDescent="0.45">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>239</v>
       </c>
@@ -18659,7 +18770,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>242</v>
       </c>
@@ -18680,7 +18793,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="165" x14ac:dyDescent="0.45">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>244</v>
       </c>
@@ -18701,7 +18816,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>248</v>
       </c>
@@ -18722,7 +18839,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B30" s="4" t="s">
         <v>251</v>
       </c>
@@ -18743,7 +18862,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B31" s="4" t="s">
         <v>253</v>
       </c>
@@ -18764,7 +18885,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="120" x14ac:dyDescent="0.45">
-      <c r="A32" s="12"/>
+      <c r="A32" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B32" s="4" t="s">
         <v>255</v>
       </c>
@@ -18785,7 +18908,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A33" s="12"/>
+      <c r="A33" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B33" s="4" t="s">
         <v>259</v>
       </c>
@@ -18806,7 +18931,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
+      <c r="A34" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>261</v>
       </c>
@@ -18827,7 +18954,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
+      <c r="A35" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>264</v>
       </c>
@@ -18848,7 +18977,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A36" s="12"/>
+      <c r="A36" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>109</v>
       </c>
@@ -18869,7 +19000,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A37" s="12"/>
+      <c r="A37" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B37" s="4" t="s">
         <v>266</v>
       </c>
@@ -18890,7 +19023,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A38" s="12"/>
+      <c r="A38" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B38" s="4" t="s">
         <v>269</v>
       </c>
@@ -18911,7 +19046,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="147.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="12"/>
+      <c r="A39" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B39" s="4" t="s">
         <v>272</v>
       </c>
@@ -18932,7 +19069,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="165" x14ac:dyDescent="0.45">
-      <c r="A40" s="12"/>
+      <c r="A40" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B40" s="4" t="s">
         <v>277</v>
       </c>
@@ -18953,7 +19092,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A41" s="12"/>
+      <c r="A41" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B41" s="4" t="s">
         <v>280</v>
       </c>
@@ -18974,7 +19115,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A42" s="12"/>
+      <c r="A42" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B42" s="4" t="s">
         <v>100</v>
       </c>
@@ -18995,7 +19138,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A43" s="12"/>
+      <c r="A43" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B43" s="4" t="s">
         <v>273</v>
       </c>
@@ -19016,7 +19161,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A44" s="12"/>
+      <c r="A44" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B44" s="4" t="s">
         <v>274</v>
       </c>
@@ -19037,7 +19184,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A45" s="12"/>
+      <c r="A45" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B45" s="4" t="s">
         <v>282</v>
       </c>
@@ -19058,7 +19207,9 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A46" s="12"/>
+      <c r="A46" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B46" s="4" t="s">
         <v>283</v>
       </c>
@@ -19079,7 +19230,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="12"/>
+      <c r="A47" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B47" s="4" t="s">
         <v>284</v>
       </c>
@@ -19100,7 +19253,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A48" s="12"/>
+      <c r="A48" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B48" s="4" t="s">
         <v>285</v>
       </c>
@@ -19121,7 +19276,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A49" s="12"/>
+      <c r="A49" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="B49" s="4" t="s">
         <v>286</v>
       </c>
@@ -19142,7 +19299,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A50" s="13"/>
+      <c r="A50" s="13" t="s">
+        <v>523</v>
+      </c>
       <c r="B50" s="4" t="s">
         <v>287</v>
       </c>
@@ -19222,8 +19381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0052A72F-99A5-4DB1-A333-01DE0A789EB0}">
   <dimension ref="A3:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -19290,7 +19449,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" s="9" t="s">
         <v>88</v>
       </c>
@@ -19311,7 +19472,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="9" t="s">
         <v>89</v>
       </c>
@@ -19332,7 +19495,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B9" s="9" t="s">
         <v>90</v>
       </c>
@@ -19353,7 +19518,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" s="9" t="s">
         <v>91</v>
       </c>
@@ -19374,7 +19541,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
@@ -19395,7 +19564,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="9" t="s">
         <v>219</v>
       </c>
@@ -19416,7 +19587,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="225" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>96</v>
       </c>
@@ -19437,7 +19610,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>109</v>
       </c>
@@ -19481,8 +19656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EC331A-EAD8-4B76-BCAE-035C1A04ED8C}">
   <dimension ref="A3:G20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -19547,7 +19722,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>315</v>
       </c>
@@ -19568,7 +19745,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>316</v>
       </c>
@@ -19587,7 +19766,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>317</v>
       </c>
@@ -19606,7 +19787,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="120" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>318</v>
       </c>
@@ -19625,7 +19808,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>319</v>
       </c>
@@ -19644,7 +19829,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>320</v>
       </c>
@@ -19663,7 +19850,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>321</v>
       </c>
@@ -19682,7 +19871,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>324</v>
       </c>
@@ -19703,7 +19894,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>322</v>
       </c>
@@ -19724,7 +19917,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="180" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>327</v>
       </c>
@@ -19745,7 +19940,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>325</v>
       </c>
@@ -19764,7 +19961,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>323</v>
       </c>
@@ -19783,7 +19982,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>101</v>
       </c>
@@ -19804,7 +20005,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>524</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>326</v>
       </c>
